--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1615182.27291595</v>
+        <v>1605984.156330237</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492766</v>
+        <v>7709817.850552399</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10611410.67678728</v>
+        <v>10553195.33670105</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="C2" t="n">
-        <v>7.456147600969725</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2662388797019</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.1299035877431</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6064846449694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>342.6298526123301</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.6238796385578</v>
       </c>
       <c r="V7" t="n">
-        <v>15.72604893648648</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>11.43714135353491</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.1628531194325</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>162.1374833440463</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.8103616908139</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>69.25200521142131</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>152.0684032264861</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>131.7942461569942</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>106.5867442799587</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.95016842792779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>175.8054861882838</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847704</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>59.9032091929889</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>53.76343456052627</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>18.26879610203983</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>128.1592673228012</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.40943379163127</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>111.4262137773466</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>71.67037196991714</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>131.4863576362032</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>181.548903816607</v>
       </c>
       <c r="C4" t="n">
         <v>99.5995062532301</v>
@@ -4513,25 +4513,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>256.4340909802017</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y4" t="n">
-        <v>256.4340909802017</v>
+        <v>181.548903816607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>863.7645169313848</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>66.99035954353295</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>522.1611424104432</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>661.4897982516964</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>848.189211077104</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1475.496879136951</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346655</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>921.9343505134891</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>921.9343505134891</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1832.086763313931</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1463.12424637352</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1104.858547766769</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>719.070295168525</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>308.0843903789175</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>296.5317223450438</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2222.226095289743</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>2222.226095289743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1832.086763313931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990733</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>577.8254266426379</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>885.2448246870097</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1263.345630340811</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1665.862284161955</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2011.866589198268</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>472.1835104367817</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>472.1835104367817</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>322.066871024446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>322.066871024446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>322.066871024446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9622657131106</v>
+        <v>1102.614105308569</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9622657131106</v>
+        <v>1102.614105308569</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9622657131106</v>
+        <v>1102.614105308569</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>874.6245544105516</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>653.8319752670214</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>1999.417367126748</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.1038984121913</v>
+        <v>749.5938910111498</v>
       </c>
       <c r="C13" t="n">
-        <v>339.1038984121913</v>
+        <v>580.6577080832429</v>
       </c>
       <c r="D13" t="n">
-        <v>339.1038984121913</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>430.5410686709072</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>262.8382320456261</v>
       </c>
       <c r="H13" t="n">
         <v>192.886711630049</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1802.739018401182</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1513.636151526826</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.951663320939</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>969.5344932839785</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>741.5449423859611</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.752363242431</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
@@ -5279,10 +5279,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686767</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522031</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
         <v>2216.257005193956</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>753.1470291944236</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1617.665844847778</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2151.197749519703</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5558,7 +5558,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.093193329805</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>1253.788099626699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5756,7 +5756,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
         <v>2216.257005193956</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -6002,13 +6002,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X25" t="n">
-        <v>3213.574689558379</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y25" t="n">
-        <v>2992.782110414849</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3730.981410493358</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C28" t="n">
-        <v>3730.981410493358</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432793</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.4049388504</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I28" t="n">
         <v>2917.269290763412</v>
@@ -6421,13 +6421,13 @@
         <v>3730.981410493358</v>
       </c>
       <c r="W28" t="n">
-        <v>3730.981410493358</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X28" t="n">
-        <v>3730.981410493358</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y28" t="n">
-        <v>3730.981410493358</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6470,28 +6470,28 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.3002584566048</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286979</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413803</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.8559841413803</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6710,19 +6710,19 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3092.649987000255</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="C34" t="n">
-        <v>2923.713804072348</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>4602.671026182878</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989246</v>
+        <v>4380.904410752403</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.182240114889</v>
+        <v>4091.801543878047</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>3837.11705567216</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.080581872042</v>
+        <v>3547.699885635199</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.091030974025</v>
+        <v>3319.710334737182</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.298451830495</v>
+        <v>3098.917755593652</v>
       </c>
     </row>
     <row r="35">
@@ -6926,46 +6926,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3253.9083103166</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C37" t="n">
-        <v>3084.972127388693</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>3084.972127388693</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>3084.972127388693</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>3084.972127388693</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>4717.543430305591</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U37" t="n">
-        <v>4428.440563431234</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V37" t="n">
-        <v>4173.756075225348</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W37" t="n">
-        <v>3884.338905188387</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="X37" t="n">
-        <v>3656.34935429037</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y37" t="n">
-        <v>3435.55677514684</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7184,7 +7184,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.5269503710301</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C40" t="n">
-        <v>393.5907674431232</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839441</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.059203485665</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.374715279778</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1192.957545242817</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>964.9679943448</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.1754152012699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7445,16 +7445,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>393.5907674431232</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5907674431232</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D43" t="n">
-        <v>243.4741280307875</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7612,7 +7612,7 @@
         <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7649,16 +7649,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686767</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522031</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7682,16 +7682,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.811212990069</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C46" t="n">
-        <v>612.8750300621621</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D46" t="n">
-        <v>462.7583906498263</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E46" t="n">
-        <v>314.8452970674332</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>167.9553495695228</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7828,28 +7828,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.012622026227</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.012622026227</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.658977898817</v>
+        <v>1542.012622026227</v>
       </c>
       <c r="W46" t="n">
-        <v>1412.241807861856</v>
+        <v>1252.595451989266</v>
       </c>
       <c r="X46" t="n">
-        <v>1184.252256963839</v>
+        <v>1024.605901091249</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.4596778203087</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>199.0051585876263</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>63.64207105006807</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>169.6592766025884</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>231.5010718068635</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>136.2499899971285</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
-        <v>201.9664098701116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>189.7998007892634</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,10 +10595,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.50300970289948</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>67.48054604968306</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.03773402494309</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>21.59472895491403</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>42.02872873825365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.8818117540095</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>42.77916716381097</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>159.6457400831803</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>171.9462208285109</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>158.0525708828117</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.422546390306</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>54.59959448168162</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.35543628911108</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>88.06259163996603</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>974009.2231331263</v>
+        <v>951618.3173206041</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951618.3173206041</v>
+        <v>911939.1475283557</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.856574579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901348.8565745787</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.856574579</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
@@ -26320,37 +26320,37 @@
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="F2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="I2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.3229530782</v>
       </c>
-      <c r="J2" t="n">
-        <v>516206.3229530781</v>
-      </c>
       <c r="K2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="L2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530784</v>
+        <v>516206.3229530785</v>
       </c>
       <c r="O2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="P2" t="n">
         <v>516206.3229530782</v>
@@ -26366,13 +26366,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513058</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879415</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26494,13 +26494,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346976.3611066574</v>
+        <v>-349072.222329203</v>
       </c>
       <c r="C6" t="n">
-        <v>242991.5181078873</v>
+        <v>73401.74154302326</v>
       </c>
       <c r="D6" t="n">
-        <v>86525.47575164353</v>
+        <v>1235.322459967836</v>
       </c>
       <c r="E6" t="n">
-        <v>-161975.0650193366</v>
+        <v>132929.0071032985</v>
       </c>
       <c r="F6" t="n">
-        <v>392082.2625971677</v>
+        <v>391260.9653464687</v>
       </c>
       <c r="G6" t="n">
-        <v>392082.262597168</v>
+        <v>391260.9653464688</v>
       </c>
       <c r="H6" t="n">
-        <v>392082.262597168</v>
+        <v>391260.9653464688</v>
       </c>
       <c r="I6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.9653464687</v>
       </c>
       <c r="J6" t="n">
-        <v>215659.0434045748</v>
+        <v>214837.7461538758</v>
       </c>
       <c r="K6" t="n">
-        <v>392082.262597168</v>
+        <v>391260.965346469</v>
       </c>
       <c r="L6" t="n">
-        <v>392082.262597168</v>
+        <v>391260.9653464689</v>
       </c>
       <c r="M6" t="n">
-        <v>262439.9477582232</v>
+        <v>261618.6505075242</v>
       </c>
       <c r="N6" t="n">
-        <v>392082.2625971681</v>
+        <v>391260.9653464691</v>
       </c>
       <c r="O6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.9653464686</v>
       </c>
       <c r="P6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.9653464688</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599693</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>219.585608408947</v>
       </c>
       <c r="C2" t="n">
-        <v>357.8167441700379</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.56574130223541</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>86.11691751088473</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>255.1246160334997</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>43.60808604372352</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>155.6367750195392</v>
       </c>
       <c r="V7" t="n">
-        <v>236.4115943873415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>59.72341230634723</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>4.11952265421931</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>22.45029296728313</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33977,10 +33977,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>282.4022844205479</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N8" t="n">
-        <v>259.9392557894442</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>460.6050612745973</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>430.6349259225225</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>770.4221876370902</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35884,19 +35884,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>473.441276552529</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
-        <v>740.8875257003384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36838,13 +36838,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37078,10 +37078,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446639</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37315,10 +37315,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37552,10 +37552,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37625,10 +37625,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38017,19 +38017,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531883</v>
+        <v>1707366.200155812</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>322.8156897822619</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>73.52907136089637</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.0588499087778</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.39645618189203</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>113.4606243873056</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>132.9971948932742</v>
       </c>
       <c r="V7" t="n">
-        <v>89.19402707783466</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>153.4004975788663</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>321.6648057272831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.3523755412373</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>88.28080497687702</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>134.9967644582769</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>67.96386702300542</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.3062202753125</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>42.71572132711237</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1496.41871256837</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1110.630459970126</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>699.6445551805186</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>281.6807470787055</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415667</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="D4" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4552,10 +4552,10 @@
         <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,25 +4591,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2652.304185783988</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2652.304185783988</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.669518756051</v>
+        <v>2351.336222562577</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.669518756051</v>
+        <v>2097.574437200668</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.60663141248</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.837976142366</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y5" t="n">
         <v>1376.372217881286</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="V7" t="n">
-        <v>608.6170882137585</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="W7" t="n">
-        <v>608.6170882137585</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6275373157412</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6275373157412</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1764.194881475117</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>1395.232364534705</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.966665927955</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>2372.235145839149</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.93405351505</v>
+        <v>1998.769387578069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.794721539239</v>
+        <v>1608.630055602257</v>
       </c>
     </row>
     <row r="9">
@@ -4892,13 +4892,13 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1734.774662373908</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2284.210671126631</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.9342089920628</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
         <v>71.81756957972706</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>964.7051330000354</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>739.0759363124004</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>449.9237598900801</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>449.9237598900801</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>449.9237598900801</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9342089920628</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.9342089920628</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>479.4598338248519</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>312.2637345397318</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138415</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859347</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2418223735989</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>597.2418223735989</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7265,16 +7265,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>222.8795953590781</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-9.178816309023572e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-6.90507955459125e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.99097492814198</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>5.297948387947002</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>111.8681131589319</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>34.11482774761875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409392967</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>105.8997516911</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
@@ -26355,7 +26355,7 @@
         <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682723</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292032</v>
+        <v>-349072.2223292028</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853418</v>
+        <v>240895.6568853417</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154678</v>
+        <v>85091.85079154669</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.4679728923</v>
+        <v>-353554.8472272495</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535567</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535569</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.844153557</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.0042153209</v>
+        <v>241074.6249609641</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.844153557</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.844153557</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998557</v>
+        <v>293289.3334454989</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.8441535573</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.223407914</v>
+        <v>417497.8441535571</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84.06035595944951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>250.3937014034608</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>92.71246049576291</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>102.2509523502731</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.08194639291968</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>102.9876959703521</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>153.2846793487035</v>
       </c>
       <c r="V7" t="n">
-        <v>162.9436162459933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>228.5298724933955</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>27.57616299012994</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>33.8944455573905</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28061,13 +28061,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>117.0850769232416</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31840,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>705.9257335045844</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>332.6670979119052</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342392</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>574.5840214212511</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1707366.200155812</v>
+        <v>1709126.730458598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>322.8156897822619</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>297.0344127064965</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D4" t="n">
-        <v>55.90301252244944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>113.4606243873056</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>132.9971948932742</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>106.9049828570325</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>321.6648057272831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>133.3523755412373</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.8410052537953</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>62.1884230276014</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9967644582769</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.96386702300542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>175.8628696806976</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.14989839348875</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>108.9501037550973</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D31" t="n">
-        <v>42.53134576113725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>951.4492202526051</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>110.4106712369801</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2351.336222562577</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2097.574437200668</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1766.511549857098</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1766.511549857098</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1766.511549857098</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.235145839149</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="X8" t="n">
-        <v>1998.769387578069</v>
+        <v>2432.949222346331</v>
       </c>
       <c r="Y8" t="n">
-        <v>1608.630055602257</v>
+        <v>2432.949222346331</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>288.7440445781237</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>793.1055844442423</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5293,13 +5293,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>776.466420735098</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227623</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E16" t="n">
-        <v>626.3497813227623</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>479.4598338248519</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>312.2637345397318</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,13 +5594,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,13 +5770,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>632.7243904253733</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,16 +7487,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
         <v>1373.553594266881</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>776.1751066403293</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,13 +8467,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>203.5259151506442</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.8820637317194</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-9.178816309023572e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.99097492814198</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>84.24553961896777</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.95742156328099</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.297948387947002</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.8681131589319</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>41.54258064659064</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>117.6820817884485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292028</v>
+        <v>-349072.2223292029</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853417</v>
+        <v>240895.6568853419</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154669</v>
+        <v>85091.85079154704</v>
       </c>
       <c r="E6" t="n">
-        <v>-353554.8472272495</v>
+        <v>-353242.2058983283</v>
       </c>
       <c r="F6" t="n">
-        <v>417497.8441535567</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="G6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="H6" t="n">
-        <v>417497.8441535569</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="I6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="J6" t="n">
-        <v>241074.6249609641</v>
+        <v>241387.2662898855</v>
       </c>
       <c r="K6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="L6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="M6" t="n">
-        <v>293289.3334454989</v>
+        <v>293601.9747744198</v>
       </c>
       <c r="N6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="O6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="P6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824784</v>
       </c>
     </row>
   </sheetData>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84.06035595944951</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D4" t="n">
-        <v>92.71246049576291</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>148.3046543496691</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.9876959703521</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>153.2846793487035</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>105.7468802579335</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>27.57616299012994</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>33.8944455573905</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>568.8264345569168</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,10 +34216,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35187,13 +35187,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>375.4138195112093</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>237.1727906644033</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,10 +37864,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38031,10 +38031,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
